--- a/DATA_goal/Junction_Flooding_485.xlsx
+++ b/DATA_goal/Junction_Flooding_485.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44816.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44816.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.9</v>
+        <v>39.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.08</v>
+        <v>50.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.95</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.98</v>
+        <v>209.84</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.99</v>
+        <v>39.86</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.64</v>
+        <v>26.41</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.57</v>
+        <v>25.72</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.6</v>
+        <v>46.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="4">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.44</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0</v>
@@ -920,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>0</v>
@@ -967,103 +967,103 @@
         <v>44816.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_485.xlsx
+++ b/DATA_goal/Junction_Flooding_485.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44816.54861111111</v>
+        <v>45166.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44816.55555555555</v>
+        <v>45166.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.5</v>
+        <v>0.216</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.66</v>
+        <v>0.626</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.24</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.02</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.21</v>
+        <v>0.006</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.18</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.76</v>
+        <v>7.509</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.11</v>
+        <v>0.569</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.3</v>
+        <v>0.127</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.29</v>
+        <v>0.127</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.77</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.95</v>
+        <v>0.376</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.19</v>
+        <v>0.515</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.87</v>
+        <v>0.664</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.26</v>
+        <v>1.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.498</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>209.84</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.86</v>
+        <v>1.688</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.02</v>
+        <v>0.347</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.41</v>
+        <v>0.878</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.79</v>
+        <v>0.511</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.72</v>
+        <v>3.197</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.57</v>
+        <v>0.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.98</v>
+        <v>0.196</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.97</v>
+        <v>0.246</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.13</v>
+        <v>0.286</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.01</v>
+        <v>7.805</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.93</v>
+        <v>0.135</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.11</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44816.5625</v>
+        <v>45166.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>7.497</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>5.964</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.016</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>16.454</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>13.174</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>6.205</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.44</v>
+        <v>20.396</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>9.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>3.887</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>6.007</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>6.528</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>6.812</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>1.834</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>8.301</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>5.271</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.921</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.527</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>84.62</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.61</v>
+        <v>16.608</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.08</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.36</v>
+        <v>10.808</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.37</v>
+        <v>5.903</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.217</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.4</v>
+        <v>9.776</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>4.832</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>4.256</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>5.017</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>6.983</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.711</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.9</v>
+        <v>18.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>3.144</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>6.866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44816.56944444445</v>
+        <v>45166.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.17</v>
+        <v>19.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.12</v>
+        <v>14.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.33</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.82</v>
+        <v>41.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.17</v>
+        <v>34.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.29</v>
+        <v>15.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.68</v>
+        <v>54.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>23.23</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.22</v>
+        <v>10.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.71</v>
+        <v>15.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.23</v>
+        <v>16.65</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.81</v>
+        <v>17.54</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.04</v>
+        <v>4.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.38</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.85</v>
+        <v>21.32</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.3</v>
+        <v>12.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.78</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>90.5</v>
+        <v>221.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.4</v>
+        <v>41.98</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.94</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.38</v>
+        <v>28.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.29</v>
+        <v>14.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.84</v>
+        <v>2.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.44</v>
+        <v>27.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.2</v>
+        <v>12.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.52</v>
+        <v>10.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.35</v>
+        <v>12.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.46</v>
+        <v>17.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.05</v>
+        <v>49.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.38</v>
+        <v>7.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44816.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.83</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.46</v>
+        <v>17.29</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_485.xlsx
+++ b/DATA_goal/Junction_Flooding_485.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,27 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45166.50694444445</v>
+        <v>44816.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.374</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.112</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.717</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.732</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.126</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.943</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.363</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.615</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.558</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.183</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.932</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.607</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.86</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.031</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.608</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.57</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.118</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.764</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>175.75</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.355</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.105</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.604</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.537</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.926</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.421</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.874000000000001</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.611</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>13.63</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.312</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.661</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.894</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.883</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45166.51388888889</v>
+        <v>44816.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.216</v>
+        <v>17.498</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.626</v>
+        <v>13.664</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.386</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.5590000000000001</v>
+        <v>39.023</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.006</v>
+        <v>32.214</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>14.177</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.509</v>
+        <v>50.759</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.569</v>
+        <v>22.113</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>10.141</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.127</v>
+        <v>15.303</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.127</v>
+        <v>16.288</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>16.769</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.588</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.376</v>
+        <v>13.946</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.515</v>
+        <v>20.189</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.664</v>
+        <v>11.874</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.263</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.498</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>209.841</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.688</v>
+        <v>39.861</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.347</v>
+        <v>13.024</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.878</v>
+        <v>26.407</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.511</v>
+        <v>14.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6909999999999999</v>
+        <v>1.873</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.197</v>
+        <v>25.722</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.226</v>
+        <v>11.574</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.196</v>
+        <v>10.979</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.246</v>
+        <v>12.968</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.286</v>
+        <v>17.132</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.115</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>7.805</v>
+        <v>46.013</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.135</v>
+        <v>7.933</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.378</v>
+        <v>16.106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45166.52083333334</v>
+        <v>44816.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.497</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.964</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.016</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.454</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.174</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.205</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.396</v>
+        <v>7.442</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.269</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.887</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.007</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.528</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.812</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.834</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.015</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.301</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.271</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.921</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.62</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.608</v>
+        <v>0.609</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.552</v>
+        <v>0.081</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.808</v>
+        <v>0.359</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.903</v>
+        <v>0.371</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.217</v>
+        <v>0.003</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.776</v>
+        <v>3.404</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.832</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.256</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.017</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.983</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.36</v>
+        <v>7.901</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.144</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45166.52777777778</v>
+        <v>44816.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.07</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.58</v>
+        <v>6.122</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.334</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.63</v>
+        <v>17.822</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.03</v>
+        <v>15.171</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.32</v>
+        <v>7.292</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.86</v>
+        <v>21.682</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.23</v>
+        <v>9.874000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.26</v>
+        <v>4.218</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.41</v>
+        <v>6.708</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.65</v>
+        <v>7.226</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.54</v>
+        <v>7.812</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.77</v>
+        <v>2.045</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>6.381</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.32</v>
+        <v>8.846</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.69</v>
+        <v>5.296</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.365</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.84</v>
+        <v>90.503</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.98</v>
+        <v>17.403</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.88</v>
+        <v>5.936</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.14</v>
+        <v>11.385</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.92</v>
+        <v>6.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.29</v>
+        <v>0.838</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.19</v>
+        <v>10.442</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.2</v>
+        <v>5.204</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.73</v>
+        <v>4.525</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.63</v>
+        <v>5.349</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.6</v>
+        <v>7.455</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.028</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.93</v>
+        <v>19.052</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.91</v>
+        <v>3.377</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.29</v>
+        <v>7.321</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44816.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.46</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_485.xlsx
+++ b/DATA_goal/Junction_Flooding_485.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,27 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44816.54861111111</v>
+        <v>45166.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.378</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.209</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.173</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.188</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.041</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.381</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.973</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.774</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.167</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.371</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.162</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.805</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.849</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.447</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.297</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.425</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19199999999999</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.308</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.642</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.505000000000001</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.977</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.068</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.066</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.321</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.735</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.773</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.064</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.189</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44816.55555555555</v>
+        <v>45166.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.498</v>
+        <v>0.216</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.664</v>
+        <v>0.626</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.386</v>
+        <v>1.24</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.023</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.214</v>
+        <v>0.006</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.177</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.759</v>
+        <v>7.509</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.113</v>
+        <v>0.569</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.141</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.303</v>
+        <v>0.127</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.288</v>
+        <v>0.127</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.769</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.588</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.946</v>
+        <v>0.376</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.189</v>
+        <v>0.515</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.874</v>
+        <v>0.664</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.263</v>
+        <v>1.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>209.841</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.861</v>
+        <v>1.688</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.024</v>
+        <v>0.347</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.407</v>
+        <v>0.878</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.79</v>
+        <v>0.511</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.873</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.722</v>
+        <v>3.197</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.574</v>
+        <v>0.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.979</v>
+        <v>0.196</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.968</v>
+        <v>0.246</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.132</v>
+        <v>0.286</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.419</v>
+        <v>1.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.013</v>
+        <v>7.805</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.933</v>
+        <v>0.135</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.106</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44816.5625</v>
+        <v>45166.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>7.497</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>5.964</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.016</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>16.454</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>13.174</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>6.205</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.442</v>
+        <v>20.396</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>9.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>3.887</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>6.007</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>6.528</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>6.812</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>1.834</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>8.301</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>5.271</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.921</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.527</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>84.62</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.609</v>
+        <v>16.608</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.081</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.359</v>
+        <v>10.808</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.371</v>
+        <v>5.903</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.003</v>
+        <v>1.217</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.404</v>
+        <v>9.776</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>4.832</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>4.256</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>5.017</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>6.983</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.711</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.901</v>
+        <v>18.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>3.144</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>6.866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44816.56944444445</v>
+        <v>45166.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.172000000000001</v>
+        <v>19.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.122</v>
+        <v>14.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.334</v>
+        <v>1.19</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.822</v>
+        <v>41.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.171</v>
+        <v>34.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.292</v>
+        <v>15.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.682</v>
+        <v>54.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.874000000000001</v>
+        <v>23.23</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.218</v>
+        <v>10.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.708</v>
+        <v>15.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.226</v>
+        <v>16.65</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.812</v>
+        <v>17.54</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.045</v>
+        <v>4.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.381</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.846</v>
+        <v>21.32</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.296</v>
+        <v>12.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.365</v>
+        <v>0.78</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>90.503</v>
+        <v>221.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.403</v>
+        <v>41.98</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.936</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.385</v>
+        <v>28.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.29</v>
+        <v>14.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.838</v>
+        <v>2.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.442</v>
+        <v>27.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.204</v>
+        <v>12.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.525</v>
+        <v>10.73</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.349</v>
+        <v>12.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.455</v>
+        <v>17.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.028</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.052</v>
+        <v>49.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.377</v>
+        <v>7.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.321</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44816.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.83</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.46</v>
+        <v>17.29</v>
       </c>
     </row>
   </sheetData>
